--- a/medicine/Œil et vue/Pinguécula/Pinguécula.xlsx
+++ b/medicine/Œil et vue/Pinguécula/Pinguécula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pingu%C3%A9cula</t>
+          <t>Pinguécula</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pinguécula est une petite masse jaunâtre, parfaitement bénigne, qui se situe sur la conjonctive à côté de la cornée. Elle est constituée de tissu conjonctif et de cellules épithéliales.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pingu%C3%A9cula</t>
+          <t>Pinguécula</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cause exacte de cette condition est inconnue, mais certains facteurs comme le vent, la poussière et les rayons ultraviolets pourraient en favoriser l’apparition[1]. Elle peut être associée à une maladie de Gaucher.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cause exacte de cette condition est inconnue, mais certains facteurs comme le vent, la poussière et les rayons ultraviolets pourraient en favoriser l’apparition. Elle peut être associée à une maladie de Gaucher.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pingu%C3%A9cula</t>
+          <t>Pinguécula</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Aucun traitement n'est nécessaire dans la mesure où la vision n'est que très rarement entravée. Si c'est le cas, une opération est à envisager.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pingu%C3%A9cula</t>
+          <t>Pinguécula</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La pinguécula ressemble au ptérygion mais ce dernier apparait au sein de la cornée et est davantage responsable de complications.
 </t>
